--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3491.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3491.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8557212187203852</v>
+        <v>1.367111802101135</v>
       </c>
       <c r="B1">
-        <v>1.333819638456503</v>
+        <v>3.678926229476929</v>
       </c>
       <c r="C1">
-        <v>3.320679875386594</v>
+        <v>3.276633024215698</v>
       </c>
       <c r="D1">
-        <v>6.255643968204166</v>
+        <v>2.665881633758545</v>
       </c>
       <c r="E1">
-        <v>2.133730168209068</v>
+        <v>1.687168717384338</v>
       </c>
     </row>
   </sheetData>
